--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Documents/workspaceEclipse/FligtsTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Project Name</t>
   </si>
@@ -86,16 +86,10 @@
     <t>Verify there are three results for outbound destination when seach for "m"</t>
   </si>
   <si>
-    <t>download file assignment</t>
-  </si>
-  <si>
     <t>1. Enter "m" into  search text field placeholder "City or airport code"</t>
   </si>
   <si>
     <t>Three (3) destination results displayed</t>
-  </si>
-  <si>
-    <t>chrome, MacOS,test cases xls/tests.java</t>
   </si>
   <si>
     <r>
@@ -450,6 +444,74 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -462,95 +524,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -834,7 +828,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,54 +849,50 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="31"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="31"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D4" s="31"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="32">
         <v>42962</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="31"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="31"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -941,415 +931,426 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="36"/>
-    </row>
-    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35" t="s">
+      <c r="C33" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="36" t="s">
+      <c r="D33" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="28"/>
-      <c r="H34" s="36"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="36"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H23"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="A15:A17"/>
@@ -1366,33 +1367,22 @@
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
